--- a/biology/Médecine/Hôpital_central_de_Päijät-Häme/Hôpital_central_de_Päijät-Häme.xlsx
+++ b/biology/Médecine/Hôpital_central_de_Päijät-Häme/Hôpital_central_de_Päijät-Häme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_central_de_P%C3%A4ij%C3%A4t-H%C3%A4me</t>
+          <t>Hôpital_central_de_Päijät-Häme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital central de Päijät-Häme (finnois : Päijät-Hämeen keskussairaala), est un hôpital situé dans le quartier Pirttiharju de Lahti en Finlande[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital central de Päijät-Häme (finnois : Päijät-Hämeen keskussairaala), est un hôpital situé dans le quartier Pirttiharju de Lahti en Finlande.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_central_de_P%C3%A4ij%C3%A4t-H%C3%A4me</t>
+          <t>Hôpital_central_de_Päijät-Häme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital central de Päijät-Häme est le deuxième plus grand hôpital central de Finlande et le septième fournisseur de soins spécialisés[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital central de Päijät-Häme est le deuxième plus grand hôpital central de Finlande et le septième fournisseur de soins spécialisés.
 Au cours de l'année 2020, l'hôpital a reçu environ 120 000 personnes.
-L'hôpital central emploie 2 900 personnes, dont 290 médecins et 1 440 infirmiers[2].
-L'hôpital central est de la responsabilité spéciale de l'hôpital universitaire d'Helsinki (HUS)[2].
+L'hôpital central emploie 2 900 personnes, dont 290 médecins et 1 440 infirmiers.
+L'hôpital central est de la responsabilité spéciale de l'hôpital universitaire d'Helsinki (HUS).
 </t>
         </is>
       </c>
